--- a/Data/Scope of the study.xlsx
+++ b/Data/Scope of the study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8. Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A49DF-37D3-41A8-A565-793A214FE450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715AA20B-33A1-45E1-A6CB-C43C59CAA3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D5441-84C0-47F5-8CE4-74B9C7F43771}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4ADB2C-08DF-42E6-96C4-9EAF03F90AD1}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2121,7 +2121,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2279,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3896E8-009F-4671-8416-11778331F608}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2415,7 +2415,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Scope of the study.xlsx
+++ b/Data/Scope of the study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8. Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715AA20B-33A1-45E1-A6CB-C43C59CAA3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23506B8-9784-44AE-BBAD-ABD62880E82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
